--- a/内蒙电信光宽端到端项目-总集工作日报.xlsx
+++ b/内蒙电信光宽端到端项目-总集工作日报.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/githud/cherisheve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14820" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016年" sheetId="1" r:id="rId1"/>
     <sheet name="2017年" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,11 +1012,21 @@
 3、查看的设备管理页面完成情况，并记录相关问题，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内容修改8.29</t>
+    <rPh sb="0" eb="1">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,22 +1082,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1155,7 +1175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1443,20 +1463,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="88.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1470,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1502,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1514,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="98" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="98" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1526,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1538,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1550,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1562,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1588,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1600,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1612,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1624,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1616,7 +1636,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1648,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1660,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="98" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1672,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1684,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1696,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1708,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1720,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -1712,7 +1732,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1744,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1736,7 +1756,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -1748,7 +1768,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +1780,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1806,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1818,7 @@
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1810,7 +1830,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -1822,7 +1842,7 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1854,7 @@
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1866,7 @@
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1878,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +1890,7 @@
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +1902,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>29</v>
       </c>
@@ -1894,7 +1914,7 @@
       </c>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1926,7 @@
       </c>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +1938,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +1950,7 @@
       </c>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>42</v>
       </c>
@@ -1942,7 +1962,7 @@
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>42</v>
       </c>
@@ -1954,7 +1974,7 @@
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +1986,7 @@
       </c>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +1998,7 @@
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" ht="70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -1990,7 +2010,7 @@
       </c>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
@@ -2002,7 +2022,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>42</v>
       </c>
@@ -2014,7 +2034,7 @@
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2046,7 @@
       </c>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -2038,7 +2058,7 @@
       </c>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
@@ -2050,7 +2070,7 @@
       </c>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +2082,7 @@
       </c>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>42</v>
       </c>
@@ -2074,7 +2094,7 @@
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>42</v>
       </c>
@@ -2086,7 +2106,7 @@
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>42</v>
       </c>
@@ -2098,7 +2118,7 @@
       </c>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
@@ -2110,7 +2130,7 @@
       </c>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
@@ -2122,7 +2142,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>42</v>
       </c>
@@ -2134,7 +2154,7 @@
       </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>42</v>
       </c>
@@ -2146,7 +2166,7 @@
       </c>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>42</v>
       </c>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +2190,7 @@
       </c>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>42</v>
       </c>
@@ -2182,7 +2202,7 @@
       </c>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>42</v>
       </c>
@@ -2194,7 +2214,7 @@
       </c>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>69</v>
       </c>
@@ -2206,7 +2226,7 @@
       </c>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2238,7 @@
       </c>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -2230,7 +2250,7 @@
       </c>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>73</v>
       </c>
@@ -2242,7 +2262,7 @@
       </c>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>73</v>
       </c>
@@ -2254,7 +2274,7 @@
       </c>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>73</v>
       </c>
@@ -2266,7 +2286,7 @@
       </c>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>73</v>
       </c>
@@ -2278,7 +2298,7 @@
       </c>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>73</v>
       </c>
@@ -2301,17 +2321,17 @@
   <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -2337,7 +2357,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -2349,7 +2369,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2361,7 +2381,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
@@ -2372,7 +2392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
@@ -2394,7 +2414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -2405,7 +2425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -2427,7 +2447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
@@ -2438,7 +2458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>90</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
@@ -2490,7 +2510,7 @@
         <v>20170411</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -2501,7 +2521,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -2512,7 +2532,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
@@ -2523,7 +2543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
@@ -2534,7 +2554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
@@ -2556,7 +2576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -2567,7 +2587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>96</v>
       </c>
@@ -2589,7 +2609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>96</v>
       </c>
@@ -2619,7 +2639,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
@@ -2627,7 +2647,7 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>109</v>
       </c>
@@ -2649,7 +2669,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
@@ -2671,7 +2691,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
@@ -2682,7 +2702,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>108</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>108</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>108</v>
       </c>
@@ -2715,7 +2735,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="17" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="17" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>108</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="17" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="17" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>108</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="17" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="17" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>108</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
@@ -2803,7 +2823,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>108</v>
       </c>
@@ -2814,7 +2834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>127</v>
       </c>
@@ -2836,7 +2856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>127</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>128</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>128</v>
       </c>
@@ -2880,7 +2900,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>20170608</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>128</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>20170609</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>128</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>20170610</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>128</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>20170611</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>128</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>20170612</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2931,7 +2951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>128</v>
       </c>
@@ -2942,7 +2962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>128</v>
       </c>
@@ -2953,7 +2973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>128</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>20170616</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>128</v>
       </c>
@@ -2969,7 +2989,7 @@
         <v>20170617</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>128</v>
       </c>
@@ -2977,7 +2997,7 @@
         <v>20170619</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>20170620</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>20170621</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>20170622</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -3009,7 +3029,7 @@
         <v>20170623</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>128</v>
       </c>
@@ -3017,7 +3037,7 @@
         <v>20170624</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -3025,87 +3045,87 @@
         <v>20170625</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <v>20170626</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
         <v>20170627</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
         <v>20170628</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
         <v>20170629</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
         <v>20170630</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="2">
         <v>20170701</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="2">
         <v>20170702</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="2">
         <v>20170703</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="2">
         <v>20170704</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
         <v>20170705</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="2">
         <v>20170706</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" s="2">
         <v>20170707</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" s="2">
         <v>20170708</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" s="2">
         <v>20170709</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="2">
         <v>20170710</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" s="2">
         <v>20170711</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" s="2">
         <v>20170712</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" s="2">
         <v>20170713</v>
       </c>
@@ -3121,27 +3141,27 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B88" s="2">
         <v>20170714</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" s="2">
         <v>20170715</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" s="2">
         <v>20170716</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" s="2">
         <v>20170717</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" ht="70" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
         <v>20170718</v>
       </c>
@@ -3149,7 +3169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" ht="70" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
         <v>20170719</v>
       </c>
@@ -3157,27 +3177,27 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>20170720</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>20170721</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
         <v>20170722</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
         <v>20170723</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
         <v>20170724</v>
       </c>
@@ -3185,7 +3205,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
         <v>20170725</v>
       </c>
@@ -3193,7 +3213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
         <v>20170726</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
         <v>20170727</v>
       </c>
@@ -3209,22 +3229,22 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
         <v>20170728</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
         <v>20170729</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
         <v>20170730</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
         <v>20170731</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
         <v>20170801</v>
       </c>
@@ -3240,7 +3260,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
         <v>20170802</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
         <v>20170803</v>
       </c>
@@ -3256,7 +3276,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
         <v>20170804</v>
       </c>
@@ -3264,17 +3284,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
         <v>20170805</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
         <v>20170806</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
         <v>20170807</v>
       </c>
@@ -3282,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>20170808</v>
       </c>
@@ -3290,7 +3310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>20170809</v>
       </c>
@@ -3298,7 +3318,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>20170810</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
         <v>20170811</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>20170812</v>
       </c>
@@ -3322,7 +3342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>20170813</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
         <v>20170814</v>
       </c>
@@ -3338,7 +3358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
         <v>20170815</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B121" s="2">
         <v>20170816</v>
       </c>
@@ -3354,27 +3374,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B122" s="2">
         <v>20170817</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B123" s="2">
         <v>20170818</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B124" s="2">
         <v>20170819</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B125" s="2">
         <v>20170820</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B126" s="2">
         <v>20170821</v>
       </c>
@@ -3382,7 +3402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B127" s="2">
         <v>20170822</v>
       </c>
@@ -3390,7 +3410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B128" s="2">
         <v>20170823</v>
       </c>
@@ -3398,7 +3418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B129" s="2">
         <v>20170824</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B130" s="2">
         <v>20170825</v>
       </c>
@@ -3414,24 +3434,27 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B131" s="2">
         <v>20170826</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B132" s="2">
         <v>20170827</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B133" s="2">
         <v>20170828</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B134" s="2">
         <v>20170829</v>
+      </c>
+      <c r="C134" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
